--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HWKim/Documents/PsychoPy/FST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heard\Documents\GitHub\FST_PsychoPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A921F-1EE1-8144-8243-6FB4B5667B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB0D739-0304-4620-B73C-54C649D0FDA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21860" yWindow="-5800" windowWidth="29740" windowHeight="18140" xr2:uid="{784928BD-3C46-DD4B-9937-35A50905CA41}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{784928BD-3C46-DD4B-9937-35A50905CA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -608,14 +608,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.796875" style="1"/>
+    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -923,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heard\Documents\GitHub\FST_PsychoPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjh200002\Documents\GitHub\FST_PsychoPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB0D739-0304-4620-B73C-54C649D0FDA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9445B4E-20BD-48F7-B3ED-2212FF5B0B06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{784928BD-3C46-DD4B-9937-35A50905CA41}"/>
+    <workbookView xWindow="2700" yWindow="-105" windowWidth="22305" windowHeight="13170" xr2:uid="{784928BD-3C46-DD4B-9937-35A50905CA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,21 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="74">
   <si>
     <t>left</t>
   </si>
@@ -57,199 +48,208 @@
     <t>syntax</t>
   </si>
   <si>
-    <t>sent_stim/001_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/002_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/003_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/004_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/005_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/013_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/014_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/015_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/016_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/024_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/026_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/027_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/028_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/029_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/030_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/041_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/043_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/044_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/045_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/046_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/047_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/054_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/055_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/056_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/057_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/058_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/064_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/065_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/066_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/067_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/068_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/075_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/077_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/078_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/079_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/080_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/081_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/085_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/086_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/087_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/095_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/096_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/097_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/103_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/105_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/106_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/107_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/108_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/109_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/111_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/112_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/113_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/114_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/115_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/128_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/129_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/130_SF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/131_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/132_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/133_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/134_OM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/142_OF.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/143_SM.wav</t>
-  </si>
-  <si>
-    <t>sent_stim/144_SF.wav</t>
-  </si>
-  <si>
     <t>sent_stim</t>
+  </si>
+  <si>
+    <t>snr</t>
+  </si>
+  <si>
+    <t>SNR2</t>
+  </si>
+  <si>
+    <t>SNR-2</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\001_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\002_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\003_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\004_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\005_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\006_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\007_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\008_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\009_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\010_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\011_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\012_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\013_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\014_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\015_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\016_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\017_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\018_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\019_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\020_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\021_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\022_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\023_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\024_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\025_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\026_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\027_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\028_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\029_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\030_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\031_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\032_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\033_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\034_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\035_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\036_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\037_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\038_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\039_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\040_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\041_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\042_SM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\043_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\044_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\045_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\046_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\047_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\048_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\049_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\050_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\051_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\052_OF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\053_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\054_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\055_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\056_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\057_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\058_SF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\059_OF_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\060_SM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\061_OM_SNR2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\062_SF_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\063_OM_SNR-2.wav</t>
+  </si>
+  <si>
+    <t>sent_stim_121720\064_SF_SNR2.wav</t>
   </si>
 </sst>
 </file>
@@ -604,20 +604,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02B2B2-1EF3-BE47-99F1-7F9337FD672E}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="7" max="8" width="10.796875" style="1"/>
-    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.75" style="1"/>
+    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -625,21 +625,27 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -647,21 +653,27 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -669,87 +681,111 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -757,43 +793,55 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -801,10 +849,13 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -812,54 +863,69 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -867,43 +933,55 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -911,109 +989,139 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -1021,10 +1129,13 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1032,76 +1143,97 @@
       <c r="C38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -1109,21 +1241,27 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1131,32 +1269,41 @@
       <c r="C47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1164,54 +1311,69 @@
       <c r="C50" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -1219,43 +1381,55 @@
       <c r="C55" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -1263,71 +1437,92 @@
       <c r="C59" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
